--- a/csv_data/flights.xlsx
+++ b/csv_data/flights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myoffice.accenture.com/personal/nicolas_caviezel_accenture_com/Documents/sujets/chat_w_doc_demo/csv_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F4A4055-9A92-E34C-BF22-ED56D984122F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="8_{1F4A4055-9A92-E34C-BF22-ED56D984122F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39A5FA7D-A668-8842-8739-06B3FF3BB3C1}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="9540" windowWidth="16980" windowHeight="9780" xr2:uid="{89460454-3483-CE42-A991-BC4A395FEE9C}"/>
+    <workbookView xWindow="17380" yWindow="10940" windowWidth="16980" windowHeight="9780" xr2:uid="{89460454-3483-CE42-A991-BC4A395FEE9C}"/>
   </bookViews>
   <sheets>
     <sheet name="flights" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="14">
   <si>
     <t>flight_id</t>
   </si>
@@ -65,12 +65,6 @@
     <t>DELAYED</t>
   </si>
   <si>
-    <t>JFK</t>
-  </si>
-  <si>
-    <t>ORY</t>
-  </si>
-  <si>
     <t>departure_date</t>
   </si>
   <si>
@@ -78,6 +72,12 @@
   </si>
   <si>
     <t>AMS</t>
+  </si>
+  <si>
+    <t>LDN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ON TIME </t>
   </si>
 </sst>
 </file>
@@ -434,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6ACA0F5-5EBD-9346-AAC3-3971ADA71972}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -464,10 +464,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -524,7 +524,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -547,10 +547,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
         <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
       </c>
       <c r="E5">
         <v>230</v>
@@ -573,7 +573,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>130</v>
@@ -616,10 +616,10 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8">
         <v>150</v>
@@ -639,10 +639,10 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>40</v>
@@ -652,6 +652,144 @@
       </c>
       <c r="G9" s="1">
         <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10" s="2">
+        <v>45280</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>200</v>
+      </c>
+      <c r="F11" s="2">
+        <v>45281</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>150</v>
+      </c>
+      <c r="F12" s="2">
+        <v>45285</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>200</v>
+      </c>
+      <c r="F13" s="2">
+        <v>45287</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>250</v>
+      </c>
+      <c r="F14" s="2">
+        <v>45290</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>150</v>
+      </c>
+      <c r="F15" s="2">
+        <v>45290</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.58333333333333337</v>
       </c>
     </row>
   </sheetData>
